--- a/Assignment3/Matmult/results.xlsx
+++ b/Assignment3/Matmult/results.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikkelsinkjaer/Documents/GitHub/02614_high_performance_computing/Assignment3/Matmult/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{163DA7BD-8C99-FF43-85D4-09C2F697F53E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A4B2517-12D0-C445-BF71-02F6537CF15A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10540" yWindow="1160" windowWidth="20160" windowHeight="17440" activeTab="1" xr2:uid="{5C6CC265-0FB4-D54C-B9D4-443DD1AD4213}"/>
+    <workbookView xWindow="21100" yWindow="0" windowWidth="12500" windowHeight="21000" activeTab="2" xr2:uid="{5C6CC265-0FB4-D54C-B9D4-443DD1AD4213}"/>
   </bookViews>
   <sheets>
     <sheet name="lib" sheetId="1" r:id="rId1"/>
     <sheet name="gpu2" sheetId="2" r:id="rId2"/>
+    <sheet name="gpu3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="4">
   <si>
     <t>size</t>
   </si>
@@ -498,6 +499,108 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F13A0A0-EC9A-E340-BA5D-D511D1526EBA}">
   <dimension ref="A1:D6"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>500</v>
+      </c>
+      <c r="B2">
+        <f>6.6939/1000</f>
+        <v>6.6939E-3</v>
+      </c>
+      <c r="C2">
+        <v>5859.375</v>
+      </c>
+      <c r="D2">
+        <v>31098.605</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1000</v>
+      </c>
+      <c r="B3">
+        <f>43.744/1000</f>
+        <v>4.3743999999999998E-2</v>
+      </c>
+      <c r="C3">
+        <v>23437.5</v>
+      </c>
+      <c r="D3">
+        <v>42372.839</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2000</v>
+      </c>
+      <c r="B4">
+        <f>349.42/1000</f>
+        <v>0.34942000000000001</v>
+      </c>
+      <c r="C4">
+        <v>93750</v>
+      </c>
+      <c r="D4">
+        <v>44323.77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4000</v>
+      </c>
+      <c r="B5">
+        <v>2.88571</v>
+      </c>
+      <c r="C5">
+        <v>375000</v>
+      </c>
+      <c r="D5">
+        <v>43764.296000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>8000</v>
+      </c>
+      <c r="B6">
+        <v>23.860099999999999</v>
+      </c>
+      <c r="C6">
+        <v>1500000</v>
+      </c>
+      <c r="D6">
+        <v>42689.144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF2425D6-6644-0647-9F92-2AEAF5964F9C}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
@@ -523,14 +626,14 @@
         <v>500</v>
       </c>
       <c r="B2">
-        <f>6.6939/1000</f>
-        <v>6.6939E-3</v>
+        <f>3.296/1000</f>
+        <v>3.2959999999999999E-3</v>
       </c>
       <c r="C2">
         <v>5859.375</v>
       </c>
       <c r="D2">
-        <v>31098.605</v>
+        <v>55931.434999999998</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -538,14 +641,14 @@
         <v>1000</v>
       </c>
       <c r="B3">
-        <f>43.744/1000</f>
-        <v>4.3743999999999998E-2</v>
+        <f>25.263/1000</f>
+        <v>2.5263000000000001E-2</v>
       </c>
       <c r="C3">
         <v>23437.5</v>
       </c>
       <c r="D3">
-        <v>42372.839</v>
+        <v>70350.16</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -553,14 +656,14 @@
         <v>2000</v>
       </c>
       <c r="B4">
-        <f>349.42/1000</f>
-        <v>0.34942000000000001</v>
+        <f>181.42/1000</f>
+        <v>0.18142</v>
       </c>
       <c r="C4">
         <v>93750</v>
       </c>
       <c r="D4">
-        <v>44323.77</v>
+        <v>83256.145999999993</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -568,13 +671,13 @@
         <v>4000</v>
       </c>
       <c r="B5">
-        <v>2.88571</v>
+        <v>1.45444</v>
       </c>
       <c r="C5">
         <v>375000</v>
       </c>
       <c r="D5">
-        <v>43764.296000000002</v>
+        <v>85691.81</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -582,13 +685,13 @@
         <v>8000</v>
       </c>
       <c r="B6">
-        <v>23.860099999999999</v>
+        <v>12.2181</v>
       </c>
       <c r="C6">
         <v>1500000</v>
       </c>
       <c r="D6">
-        <v>42689.144</v>
+        <v>82934.312999999995</v>
       </c>
     </row>
   </sheetData>

--- a/Assignment3/Matmult/results.xlsx
+++ b/Assignment3/Matmult/results.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikkelsinkjaer/Documents/GitHub/02614_high_performance_computing/Assignment3/Matmult/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A4B2517-12D0-C445-BF71-02F6537CF15A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D52DF46C-58B4-704E-B9CF-09D40DCE803D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21100" yWindow="0" windowWidth="12500" windowHeight="21000" activeTab="2" xr2:uid="{5C6CC265-0FB4-D54C-B9D4-443DD1AD4213}"/>
+    <workbookView xWindow="23460" yWindow="0" windowWidth="10140" windowHeight="21000" activeTab="3" xr2:uid="{5C6CC265-0FB4-D54C-B9D4-443DD1AD4213}"/>
   </bookViews>
   <sheets>
     <sheet name="lib" sheetId="1" r:id="rId1"/>
     <sheet name="gpu2" sheetId="2" r:id="rId2"/>
-    <sheet name="gpu3" sheetId="3" r:id="rId3"/>
+    <sheet name="gpu3 below" sheetId="4" r:id="rId3"/>
+    <sheet name="gpu3 right" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="4">
   <si>
     <t>size</t>
   </si>
@@ -598,11 +599,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF2425D6-6644-0647-9F92-2AEAF5964F9C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AF16749-0EFD-9248-9C4F-41512895DAC6}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -626,14 +627,14 @@
         <v>500</v>
       </c>
       <c r="B2">
-        <f>3.296/1000</f>
-        <v>3.2959999999999999E-3</v>
+        <f>1.2007/1000</f>
+        <v>1.2007000000000001E-3</v>
       </c>
       <c r="C2">
         <v>5859.375</v>
       </c>
       <c r="D2">
-        <v>55931.434999999998</v>
+        <v>105701.02499999999</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -641,14 +642,14 @@
         <v>1000</v>
       </c>
       <c r="B3">
-        <f>25.263/1000</f>
-        <v>2.5263000000000001E-2</v>
+        <f>10.215/1000</f>
+        <v>1.0215E-2</v>
       </c>
       <c r="C3">
         <v>23437.5</v>
       </c>
       <c r="D3">
-        <v>70350.16</v>
+        <v>150577.21900000001</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -656,14 +657,14 @@
         <v>2000</v>
       </c>
       <c r="B4">
-        <f>181.42/1000</f>
-        <v>0.18142</v>
+        <f>76.889/1000</f>
+        <v>7.6888999999999999E-2</v>
       </c>
       <c r="C4">
         <v>93750</v>
       </c>
       <c r="D4">
-        <v>83256.145999999993</v>
+        <v>182050.647</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -671,13 +672,14 @@
         <v>4000</v>
       </c>
       <c r="B5">
-        <v>1.45444</v>
+        <f>606.77/1000</f>
+        <v>0.60677000000000003</v>
       </c>
       <c r="C5">
         <v>375000</v>
       </c>
       <c r="D5">
-        <v>85691.81</v>
+        <v>196920.22399999999</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -685,13 +687,116 @@
         <v>8000</v>
       </c>
       <c r="B6">
-        <v>12.2181</v>
+        <v>7.1309199999999997</v>
       </c>
       <c r="C6">
         <v>1500000</v>
       </c>
       <c r="D6">
-        <v>82934.312999999995</v>
+        <v>141048.46299999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF2425D6-6644-0647-9F92-2AEAF5964F9C}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>500</v>
+      </c>
+      <c r="B2">
+        <f>554.36/1000000</f>
+        <v>5.5436000000000005E-4</v>
+      </c>
+      <c r="C2">
+        <v>5859.375</v>
+      </c>
+      <c r="D2">
+        <v>143260.93799999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1000</v>
+      </c>
+      <c r="B3">
+        <f>4.403/1000</f>
+        <v>4.4029999999999998E-3</v>
+      </c>
+      <c r="C3">
+        <v>23437.5</v>
+      </c>
+      <c r="D3">
+        <v>259012.927</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2000</v>
+      </c>
+      <c r="B4">
+        <f>42.897/1000</f>
+        <v>4.2896999999999998E-2</v>
+      </c>
+      <c r="C4">
+        <v>93750</v>
+      </c>
+      <c r="D4">
+        <v>296702.489</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4000</v>
+      </c>
+      <c r="B5">
+        <f>331.81/1000</f>
+        <v>0.33180999999999999</v>
+      </c>
+      <c r="C5">
+        <v>375000</v>
+      </c>
+      <c r="D5">
+        <v>343168.74400000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>8000</v>
+      </c>
+      <c r="B6">
+        <v>2.68547</v>
+      </c>
+      <c r="C6">
+        <v>1500000</v>
+      </c>
+      <c r="D6">
+        <v>361384.95299999998</v>
       </c>
     </row>
   </sheetData>

--- a/Assignment3/Matmult/results.xlsx
+++ b/Assignment3/Matmult/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikkelsinkjaer/Documents/GitHub/02614_high_performance_computing/Assignment3/Matmult/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D52DF46C-58B4-704E-B9CF-09D40DCE803D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8914E893-B900-D147-8AAB-CAC052AA60CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23460" yWindow="0" windowWidth="10140" windowHeight="21000" activeTab="3" xr2:uid="{5C6CC265-0FB4-D54C-B9D4-443DD1AD4213}"/>
   </bookViews>
@@ -402,7 +402,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="A1:D6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
